--- a/raw_data/20200818_saline/20200818_Sensor3_Test_2.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_2.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2AF852-DBE1-4010-8A36-23F36B3CD719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>1455.677935</v>
+        <v>1455.6779349999999</v>
       </c>
       <c r="B2" s="1">
-        <v>0.404355</v>
+        <v>0.40435500000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1142.530000</v>
+        <v>1142.53</v>
       </c>
       <c r="D2" s="1">
-        <v>-260.530000</v>
+        <v>-260.52999999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1466.071459</v>
       </c>
       <c r="G2" s="1">
-        <v>0.407242</v>
+        <v>0.40724199999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.940000</v>
+        <v>1163.94</v>
       </c>
       <c r="I2" s="1">
-        <v>-218.552000</v>
+        <v>-218.55199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1476.891816</v>
+        <v>1476.8918160000001</v>
       </c>
       <c r="L2" s="1">
         <v>0.410248</v>
       </c>
       <c r="M2" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.125000</v>
+        <v>-151.125</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>1487.722489</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.413256</v>
+        <v>0.41325600000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1199.200000</v>
+        <v>1199.2</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.672000</v>
+        <v>-128.672</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>1498.290219</v>
       </c>
       <c r="V2" s="1">
-        <v>0.416192</v>
+        <v>0.41619200000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.454000</v>
+        <v>-107.45399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1508.474607</v>
+        <v>1508.4746070000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.419021</v>
+        <v>0.41902099999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1213.330000</v>
+        <v>1213.33</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.406400</v>
+        <v>-90.406400000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>1518.668353</v>
@@ -571,255 +987,255 @@
         <v>0.421852</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.240000</v>
+        <v>1218.24</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.906800</v>
+        <v>-84.906800000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>1528.817493</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.424672</v>
+        <v>0.42467199999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.647300</v>
+        <v>-87.647300000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>1539.060870</v>
+        <v>1539.06087</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.427517</v>
+        <v>0.42751699999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1232.760000</v>
+        <v>1232.76</v>
       </c>
       <c r="AR2" s="1">
-        <v>-98.860700</v>
+        <v>-98.860699999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>1549.702041</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.430473</v>
+        <v>0.43047299999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW2" s="1">
-        <v>-117.309000</v>
+        <v>-117.309</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>1560.334778</v>
+        <v>1560.3347779999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.433426</v>
+        <v>0.43342599999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB2" s="1">
-        <v>-134.065000</v>
+        <v>-134.065</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>1570.940759</v>
+        <v>1570.9407590000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.436372</v>
+        <v>0.43637199999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1288.740000</v>
+        <v>1288.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-213.172000</v>
+        <v>-213.172</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1581.987630</v>
+        <v>1581.9876300000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.439441</v>
+        <v>0.43944100000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1354.610000</v>
+        <v>1354.61</v>
       </c>
       <c r="BL2" s="1">
-        <v>-346.190000</v>
+        <v>-346.19</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>1592.699759</v>
+        <v>1592.6997590000001</v>
       </c>
       <c r="BO2" s="1">
         <v>0.442417</v>
       </c>
       <c r="BP2" s="1">
-        <v>1462.810000</v>
+        <v>1462.81</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-565.049000</v>
+        <v>-565.04899999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>1603.468406</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.445408</v>
+        <v>0.44540800000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1588.120000</v>
+        <v>1588.12</v>
       </c>
       <c r="BV2" s="1">
-        <v>-814.207000</v>
+        <v>-814.20699999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>1614.145252</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.448374</v>
+        <v>0.44837399999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1734.710000</v>
+        <v>1734.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1087.100000</v>
+        <v>-1087.0999999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>1625.320612</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.451478</v>
+        <v>0.45147799999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2142.520000</v>
+        <v>2142.52</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1752.660000</v>
+        <v>-1752.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>1456.066291</v>
+        <v>1456.0662910000001</v>
       </c>
       <c r="B3" s="1">
-        <v>0.404463</v>
+        <v>0.40446300000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1142.370000</v>
+        <v>1142.3699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.714000</v>
+        <v>-260.714</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1466.443591</v>
       </c>
       <c r="G3" s="1">
-        <v>0.407345</v>
+        <v>0.40734500000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1164.040000</v>
+        <v>1164.04</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.358000</v>
+        <v>-218.358</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>1477.575304</v>
       </c>
       <c r="L3" s="1">
-        <v>0.410438</v>
+        <v>0.41043800000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.730000</v>
+        <v>1191.73</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.033000</v>
+        <v>-151.03299999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>1488.141081</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.413373</v>
+        <v>0.41337299999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1199.270000</v>
+        <v>1199.27</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.603000</v>
+        <v>-128.60300000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1498.695947</v>
+        <v>1498.6959469999999</v>
       </c>
       <c r="V3" s="1">
-        <v>0.416304</v>
+        <v>0.41630400000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.429000</v>
+        <v>-107.429</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>1508.834337</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.419121</v>
+        <v>0.41912100000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.560000</v>
+        <v>1213.56</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.828400</v>
+        <v>-89.828400000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>1519.048785</v>
@@ -828,166 +1244,166 @@
         <v>0.421958</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.919300</v>
+        <v>-84.919300000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1529.199940</v>
+        <v>1529.19994</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.424778</v>
+        <v>0.42477799999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.619600</v>
+        <v>-87.619600000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1539.477045</v>
+        <v>1539.4770450000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.427633</v>
+        <v>0.42763299999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR3" s="1">
-        <v>-98.864600</v>
+        <v>-98.864599999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>1550.137031</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.430594</v>
+        <v>0.43059399999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW3" s="1">
-        <v>-117.297000</v>
+        <v>-117.297</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1560.756410</v>
+        <v>1560.75641</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.433543</v>
+        <v>0.43354300000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB3" s="1">
-        <v>-134.062000</v>
+        <v>-134.06200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>1571.304299</v>
+        <v>1571.3042989999999</v>
       </c>
       <c r="BE3" s="1">
         <v>0.436473</v>
       </c>
       <c r="BF3" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG3" s="1">
-        <v>-213.199000</v>
+        <v>-213.19900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>1582.367101</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.439546</v>
+        <v>0.43954599999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1354.530000</v>
+        <v>1354.53</v>
       </c>
       <c r="BL3" s="1">
-        <v>-346.213000</v>
+        <v>-346.21300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1593.132238</v>
+        <v>1593.1322379999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.442537</v>
+        <v>0.44253700000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1462.810000</v>
+        <v>1462.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-565.069000</v>
+        <v>-565.06899999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>1603.897904</v>
+        <v>1603.8979039999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.445527</v>
+        <v>0.44552700000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1588.090000</v>
+        <v>1588.09</v>
       </c>
       <c r="BV3" s="1">
-        <v>-814.056000</v>
+        <v>-814.05600000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>1614.607026</v>
+        <v>1614.6070259999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.448502</v>
+        <v>0.44850200000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1734.750000</v>
+        <v>1734.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1087.170000</v>
+        <v>-1087.17</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1625.913827</v>
+        <v>1625.9138270000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.451643</v>
+        <v>0.45164300000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2140.300000</v>
+        <v>2140.3000000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1753.090000</v>
+        <v>-1753.09</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>1456.718044</v>
       </c>
@@ -995,118 +1411,118 @@
         <v>0.404644</v>
       </c>
       <c r="C4" s="1">
-        <v>1142.400000</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.478000</v>
+        <v>-260.47800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1467.102313</v>
+        <v>1467.1023130000001</v>
       </c>
       <c r="G4" s="1">
         <v>0.407528</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.730000</v>
+        <v>1163.73</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.906000</v>
+        <v>-217.90600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1477.962680</v>
+        <v>1477.9626800000001</v>
       </c>
       <c r="L4" s="1">
-        <v>0.410545</v>
+        <v>0.41054499999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1191.440000</v>
+        <v>1191.44</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.101000</v>
+        <v>-151.101</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1488.491789</v>
+        <v>1488.4917889999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.413470</v>
+        <v>0.41347</v>
       </c>
       <c r="R4" s="1">
-        <v>1199.320000</v>
+        <v>1199.32</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.691000</v>
+        <v>-128.691</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>1499.042651</v>
       </c>
       <c r="V4" s="1">
-        <v>0.416401</v>
+        <v>0.41640100000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.510000</v>
+        <v>1206.51</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.327000</v>
+        <v>-107.327</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1509.178927</v>
+        <v>1509.1789269999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.419216</v>
+        <v>0.41921599999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.842100</v>
+        <v>-89.842100000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1519.469393</v>
+        <v>1519.4693930000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.422075</v>
+        <v>0.42207499999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.280000</v>
+        <v>1218.28</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.986000</v>
+        <v>-84.986000000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1529.622002</v>
+        <v>1529.6220020000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.424895</v>
+        <v>0.42489500000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.640100</v>
+        <v>-87.640100000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>1539.820741</v>
@@ -1115,118 +1531,118 @@
         <v>0.427728</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR4" s="1">
-        <v>-98.846800</v>
+        <v>-98.846800000000002</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>1550.454967</v>
+        <v>1550.4549669999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.430682</v>
+        <v>0.43068200000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW4" s="1">
-        <v>-117.286000</v>
+        <v>-117.286</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1561.114516</v>
+        <v>1561.1145160000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>0.433643</v>
       </c>
       <c r="BA4" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB4" s="1">
-        <v>-134.052000</v>
+        <v>-134.05199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>1571.665884</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.436574</v>
+        <v>0.43657400000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG4" s="1">
-        <v>-213.168000</v>
+        <v>-213.16800000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>1582.741548</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.439650</v>
+        <v>0.43964999999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL4" s="1">
-        <v>-346.220000</v>
+        <v>-346.22</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>1593.553838</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.442654</v>
+        <v>0.44265399999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1462.820000</v>
+        <v>1462.82</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-565.175000</v>
+        <v>-565.17499999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1604.320000</v>
+        <v>1604.32</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.445644</v>
+        <v>0.44564399999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1588.190000</v>
+        <v>1588.19</v>
       </c>
       <c r="BV4" s="1">
-        <v>-814.037000</v>
+        <v>-814.03700000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1615.056401</v>
+        <v>1615.0564010000001</v>
       </c>
       <c r="BY4" s="1">
         <v>0.448627</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1734.730000</v>
+        <v>1734.73</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1087.060000</v>
+        <v>-1087.06</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>1626.454999</v>
@@ -1235,317 +1651,317 @@
         <v>0.451793</v>
       </c>
       <c r="CE4" s="1">
-        <v>2141.870000</v>
+        <v>2141.87</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1755.020000</v>
+        <v>-1755.02</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>1457.091026</v>
+        <v>1457.0910260000001</v>
       </c>
       <c r="B5" s="1">
         <v>0.404748</v>
       </c>
       <c r="C5" s="1">
-        <v>1142.450000</v>
+        <v>1142.45</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.334000</v>
+        <v>-260.334</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1467.477749</v>
+        <v>1467.4777489999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.407633</v>
+        <v>0.40763300000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.850000</v>
+        <v>1163.8499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.587000</v>
+        <v>-218.58699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>1478.308886</v>
       </c>
       <c r="L5" s="1">
-        <v>0.410641</v>
+        <v>0.41064099999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1191.570000</v>
+        <v>1191.57</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.026000</v>
+        <v>-151.02600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1488.837960</v>
+        <v>1488.8379600000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.413566</v>
+        <v>0.41356599999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1199.270000</v>
+        <v>1199.27</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.701000</v>
+        <v>-128.70099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1499.388859</v>
+        <v>1499.3888589999999</v>
       </c>
       <c r="V5" s="1">
-        <v>0.416497</v>
+        <v>0.41649700000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.390000</v>
+        <v>1206.3900000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.426000</v>
+        <v>-107.426</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>1509.599997</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.419333</v>
+        <v>0.41933300000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.870300</v>
+        <v>-89.8703</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1519.766669</v>
+        <v>1519.7666690000001</v>
       </c>
       <c r="AF5" s="1">
         <v>0.422157</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.974600</v>
+        <v>-84.974599999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1529.919602</v>
+        <v>1529.9196019999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.424978</v>
+        <v>0.42497800000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.636500</v>
+        <v>-87.636499999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>1540.184309</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.427829</v>
+        <v>0.42782900000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR5" s="1">
-        <v>-98.853300</v>
+        <v>-98.853300000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>1550.817543</v>
+        <v>1550.8175429999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.430783</v>
+        <v>0.43078300000000003</v>
       </c>
       <c r="AV5" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW5" s="1">
-        <v>-117.306000</v>
+        <v>-117.306</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>1561.475577</v>
+        <v>1561.4755769999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.433743</v>
+        <v>0.43374299999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1250.510000</v>
+        <v>1250.51</v>
       </c>
       <c r="BB5" s="1">
-        <v>-134.058000</v>
+        <v>-134.05799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1572.393514</v>
+        <v>1572.3935140000001</v>
       </c>
       <c r="BE5" s="1">
         <v>0.436776</v>
       </c>
       <c r="BF5" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-213.183000</v>
+        <v>-213.18299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>1583.501420</v>
+        <v>1583.5014200000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.439862</v>
+        <v>0.43986199999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="BL5" s="1">
-        <v>-346.197000</v>
+        <v>-346.197</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1593.950637</v>
+        <v>1593.9506369999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.442764</v>
+        <v>0.44276399999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1462.800000</v>
+        <v>1462.8</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-565.095000</v>
+        <v>-565.09500000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>1604.734655</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.445760</v>
+        <v>0.44575999999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1588.220000</v>
+        <v>1588.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-814.032000</v>
+        <v>-814.03200000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>1615.487425</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.448747</v>
+        <v>0.44874700000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1734.680000</v>
+        <v>1734.68</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1087.210000</v>
+        <v>-1087.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>1627.296179</v>
+        <v>1627.2961789999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.452027</v>
+        <v>0.45202700000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2139.610000</v>
+        <v>2139.61</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1753.330000</v>
+        <v>-1753.33</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>1457.429794</v>
+        <v>1457.4297939999999</v>
       </c>
       <c r="B6" s="1">
-        <v>0.404842</v>
+        <v>0.40484199999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.310000</v>
+        <v>1142.31</v>
       </c>
       <c r="D6" s="1">
-        <v>-260.724000</v>
+        <v>-260.72399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1467.820486</v>
+        <v>1467.8204860000001</v>
       </c>
       <c r="G6" s="1">
-        <v>0.407728</v>
+        <v>0.40772799999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.960000</v>
+        <v>1163.96</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.045000</v>
+        <v>-218.04499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>1478.656581</v>
       </c>
       <c r="L6" s="1">
-        <v>0.410738</v>
+        <v>0.41073799999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.237000</v>
+        <v>-151.23699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>1489.261571</v>
@@ -1554,73 +1970,73 @@
         <v>0.413684</v>
       </c>
       <c r="R6" s="1">
-        <v>1199.260000</v>
+        <v>1199.26</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.764000</v>
+        <v>-128.76400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>1499.802553</v>
       </c>
       <c r="V6" s="1">
-        <v>0.416612</v>
+        <v>0.41661199999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.410000</v>
+        <v>1206.4100000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.416000</v>
+        <v>-107.416</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>1509.877788</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.419410</v>
+        <v>0.41941000000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.796800</v>
+        <v>-89.796800000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>1520.110719</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.422253</v>
+        <v>0.42225299999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.270000</v>
+        <v>1218.27</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.956300</v>
+        <v>-84.956299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>1530.270274</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.425075</v>
+        <v>0.42507499999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.642600</v>
+        <v>-87.642600000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>1540.543445</v>
@@ -1629,225 +2045,225 @@
         <v>0.427929</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1232.780000</v>
+        <v>1232.78</v>
       </c>
       <c r="AR6" s="1">
-        <v>-98.859100</v>
+        <v>-98.859099999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>1551.446470</v>
+        <v>1551.4464700000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.430957</v>
+        <v>0.43095699999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW6" s="1">
-        <v>-117.299000</v>
+        <v>-117.29900000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>1562.189321</v>
+        <v>1562.1893210000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.433941</v>
+        <v>0.43394100000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB6" s="1">
-        <v>-134.076000</v>
+        <v>-134.07599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>1572.767993</v>
+        <v>1572.7679929999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.436880</v>
+        <v>0.43687999999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG6" s="1">
-        <v>-213.198000</v>
+        <v>-213.19800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1583.867468</v>
+        <v>1583.8674679999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.439963</v>
+        <v>0.43996299999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1354.620000</v>
+        <v>1354.62</v>
       </c>
       <c r="BL6" s="1">
-        <v>-346.210000</v>
+        <v>-346.21</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1594.375710</v>
+        <v>1594.37571</v>
       </c>
       <c r="BO6" s="1">
         <v>0.442882</v>
       </c>
       <c r="BP6" s="1">
-        <v>1462.790000</v>
+        <v>1462.79</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-565.160000</v>
+        <v>-565.16</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1605.455838</v>
+        <v>1605.4558380000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.445960</v>
+        <v>0.44596000000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1588.320000</v>
+        <v>1588.32</v>
       </c>
       <c r="BV6" s="1">
-        <v>-814.029000</v>
+        <v>-814.029</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>1616.211088</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.448948</v>
+        <v>0.44894800000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1734.860000</v>
+        <v>1734.86</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1087.090000</v>
+        <v>-1087.0899999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>1627.533761</v>
+        <v>1627.5337609999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.452093</v>
+        <v>0.45209300000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2139.860000</v>
+        <v>2139.86</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1753.320000</v>
+        <v>-1753.32</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>1457.775011</v>
+        <v>1457.7750109999999</v>
       </c>
       <c r="B7" s="1">
-        <v>0.404938</v>
+        <v>0.40493800000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1142.450000</v>
+        <v>1142.45</v>
       </c>
       <c r="D7" s="1">
-        <v>-260.652000</v>
+        <v>-260.65199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1468.193512</v>
+        <v>1468.1935120000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0.407832</v>
+        <v>0.40783199999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>1163.880000</v>
+        <v>1163.8800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.144000</v>
+        <v>-218.14400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>1479.069254</v>
       </c>
       <c r="L7" s="1">
-        <v>0.410853</v>
+        <v>0.41085300000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1191.560000</v>
+        <v>1191.56</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.921000</v>
+        <v>-150.92099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1489.539832</v>
+        <v>1489.5398319999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.413761</v>
+        <v>0.41376099999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1199.190000</v>
+        <v>1199.19</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.676000</v>
+        <v>-128.67599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>1500.081801</v>
       </c>
       <c r="V7" s="1">
-        <v>0.416689</v>
+        <v>0.41668899999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.410000</v>
+        <v>1206.4100000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.385000</v>
+        <v>-107.38500000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>1510.225948</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.419507</v>
+        <v>0.41950700000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.817100</v>
+        <v>-89.817099999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>1520.454446</v>
@@ -1856,133 +2272,133 @@
         <v>0.422348</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.947700</v>
+        <v>-84.947699999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1530.607059</v>
+        <v>1530.6070589999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.425169</v>
+        <v>0.42516900000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.673100</v>
+        <v>-87.673100000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1541.266579</v>
+        <v>1541.2665790000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.428130</v>
+        <v>0.42813000000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR7" s="1">
-        <v>-98.856500</v>
+        <v>-98.856499999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>1551.569479</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.430992</v>
+        <v>0.43099199999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1242.410000</v>
+        <v>1242.4100000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-117.307000</v>
+        <v>-117.307</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>1562.550903</v>
+        <v>1562.5509030000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.434042</v>
+        <v>0.43404199999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB7" s="1">
-        <v>-134.083000</v>
+        <v>-134.083</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>1573.161818</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.436989</v>
+        <v>0.43698900000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1288.710000</v>
+        <v>1288.71</v>
       </c>
       <c r="BG7" s="1">
-        <v>-213.170000</v>
+        <v>-213.17</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>1584.242444</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.440067</v>
+        <v>0.44006699999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="BL7" s="1">
-        <v>-346.215000</v>
+        <v>-346.21499999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>1595.071133</v>
+        <v>1595.0711329999999</v>
       </c>
       <c r="BO7" s="1">
         <v>0.443075</v>
       </c>
       <c r="BP7" s="1">
-        <v>1462.830000</v>
+        <v>1462.83</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-565.136000</v>
+        <v>-565.13599999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1605.580863</v>
+        <v>1605.5808629999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.445995</v>
+        <v>0.44599499999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>1588.360000</v>
+        <v>1588.36</v>
       </c>
       <c r="BV7" s="1">
-        <v>-814.031000</v>
+        <v>-814.03099999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>1616.356912</v>
@@ -1991,13 +2407,13 @@
         <v>0.448988</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1734.820000</v>
+        <v>1734.82</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1087.150000</v>
+        <v>-1087.1500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>1628.051586</v>
@@ -2006,105 +2422,105 @@
         <v>0.452237</v>
       </c>
       <c r="CE7" s="1">
-        <v>2141.270000</v>
+        <v>2141.27</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1754.450000</v>
+        <v>-1754.45</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>1458.201569</v>
+        <v>1458.2015690000001</v>
       </c>
       <c r="B8" s="1">
-        <v>0.405056</v>
+        <v>0.40505600000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.240000</v>
+        <v>1142.24</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.307000</v>
+        <v>-260.30700000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1468.868533</v>
+        <v>1468.8685330000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.408019</v>
+        <v>0.40801900000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.160000</v>
+        <v>1164.1600000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.421000</v>
+        <v>-218.42099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>1479.366886</v>
       </c>
       <c r="L8" s="1">
-        <v>0.410935</v>
+        <v>0.41093499999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1191.580000</v>
+        <v>1191.58</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.182000</v>
+        <v>-151.18199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1489.890471</v>
+        <v>1489.8904709999999</v>
       </c>
       <c r="Q8" s="1">
         <v>0.413858</v>
       </c>
       <c r="R8" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.723000</v>
+        <v>-128.72300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1500.415081</v>
+        <v>1500.4150810000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.416782</v>
+        <v>0.41678199999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.430000</v>
+        <v>-107.43</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1510.575659</v>
+        <v>1510.5756590000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.419604</v>
+        <v>0.41960399999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.791400</v>
+        <v>-89.791399999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>1521.140944</v>
@@ -2113,28 +2529,28 @@
         <v>0.422539</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.280000</v>
+        <v>1218.28</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.942000</v>
+        <v>-84.941999999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>1531.315552</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.425365</v>
+        <v>0.42536499999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.100000</v>
+        <v>1225.0999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.658500</v>
+        <v>-87.658500000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>1541.613779</v>
@@ -2143,58 +2559,58 @@
         <v>0.428226</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR8" s="1">
-        <v>-98.860500</v>
+        <v>-98.860500000000002</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>1551.908279</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.431086</v>
+        <v>0.43108600000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW8" s="1">
-        <v>-117.306000</v>
+        <v>-117.306</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>1562.909014</v>
+        <v>1562.9090140000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>0.434141</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB8" s="1">
-        <v>-134.065000</v>
+        <v>-134.065</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>1573.826457</v>
+        <v>1573.8264569999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.437174</v>
+        <v>0.43717400000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1288.730000</v>
+        <v>1288.73</v>
       </c>
       <c r="BG8" s="1">
-        <v>-213.176000</v>
+        <v>-213.17599999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>1584.680441</v>
@@ -2203,1450 +2619,1450 @@
         <v>0.440189</v>
       </c>
       <c r="BK8" s="1">
-        <v>1354.540000</v>
+        <v>1354.54</v>
       </c>
       <c r="BL8" s="1">
-        <v>-346.223000</v>
+        <v>-346.22300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>1595.191628</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.443109</v>
+        <v>0.44310899999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1462.820000</v>
+        <v>1462.82</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-565.128000</v>
+        <v>-565.12800000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>1606.001470</v>
+        <v>1606.0014699999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.446112</v>
+        <v>0.44611200000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1588.460000</v>
+        <v>1588.46</v>
       </c>
       <c r="BV8" s="1">
-        <v>-813.931000</v>
+        <v>-813.93100000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1616.782977</v>
+        <v>1616.7829770000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.449106</v>
+        <v>0.44910600000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1734.630000</v>
+        <v>1734.63</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1087.010000</v>
+        <v>-1087.01</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>1628.571919</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.452381</v>
+        <v>0.45238099999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>2140.920000</v>
+        <v>2140.92</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1754.350000</v>
+        <v>-1754.35</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>1458.462001</v>
+        <v>1458.4620010000001</v>
       </c>
       <c r="B9" s="1">
-        <v>0.405128</v>
+        <v>0.40512799999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1142.430000</v>
+        <v>1142.43</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.503000</v>
+        <v>-260.50299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1469.211762</v>
+        <v>1469.2117619999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.408114</v>
+        <v>0.40811399999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.890000</v>
+        <v>1163.8900000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.459000</v>
+        <v>-218.459</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1479.711604</v>
+        <v>1479.7116040000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0.411031</v>
+        <v>0.41103099999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.978000</v>
+        <v>-150.97800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1490.240678</v>
+        <v>1490.2406779999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.413956</v>
+        <v>0.41395599999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1199.300000</v>
+        <v>1199.3</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.678000</v>
+        <v>-128.678</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>1500.770713</v>
+        <v>1500.7707129999999</v>
       </c>
       <c r="V9" s="1">
         <v>0.416881</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.400000</v>
+        <v>1206.4000000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.401000</v>
+        <v>-107.401</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1511.270058</v>
+        <v>1511.2700580000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.419797</v>
+        <v>0.41979699999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1213.640000</v>
+        <v>1213.6400000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.874500</v>
+        <v>-89.874499999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>1521.483645</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.422634</v>
+        <v>0.42263400000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.310000</v>
+        <v>1218.31</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.943900</v>
+        <v>-84.943899999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1531.663072</v>
+        <v>1531.6630720000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.425462</v>
+        <v>0.42546200000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.663500</v>
+        <v>-87.663499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1541.985282</v>
+        <v>1541.9852820000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.428329</v>
+        <v>0.42832900000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1232.820000</v>
+        <v>1232.82</v>
       </c>
       <c r="AR9" s="1">
-        <v>-98.843300</v>
+        <v>-98.843299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>1552.582836</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.431273</v>
+        <v>0.43127300000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW9" s="1">
-        <v>-117.289000</v>
+        <v>-117.289</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>1563.586055</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.434329</v>
+        <v>0.43432900000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB9" s="1">
-        <v>-134.079000</v>
+        <v>-134.07900000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>1574.278529</v>
+        <v>1574.2785289999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.437300</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1288.740000</v>
+        <v>1288.74</v>
       </c>
       <c r="BG9" s="1">
-        <v>-213.217000</v>
+        <v>-213.21700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>1585.022649</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.440284</v>
+        <v>0.44028400000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="BL9" s="1">
-        <v>-346.180000</v>
+        <v>-346.18</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>1595.614715</v>
+        <v>1595.6147149999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.443226</v>
+        <v>0.44322600000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1462.730000</v>
+        <v>1462.73</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-565.168000</v>
+        <v>-565.16800000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>1606.427502</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.446230</v>
+        <v>0.44623000000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1588.560000</v>
+        <v>1588.56</v>
       </c>
       <c r="BV9" s="1">
-        <v>-813.946000</v>
+        <v>-813.94600000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>1617.199616</v>
+        <v>1617.1996160000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.449222</v>
+        <v>0.44922200000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1734.750000</v>
+        <v>1734.75</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1087.170000</v>
+        <v>-1087.17</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1629.124432</v>
+        <v>1629.1244320000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.452535</v>
+        <v>0.45253500000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>2140.340000</v>
+        <v>2140.34</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1753.860000</v>
+        <v>-1753.86</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>1458.805264</v>
+        <v>1458.8052640000001</v>
       </c>
       <c r="B10" s="1">
-        <v>0.405224</v>
+        <v>0.40522399999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1142.510000</v>
+        <v>1142.51</v>
       </c>
       <c r="D10" s="1">
-        <v>-260.473000</v>
+        <v>-260.47300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1469.559955</v>
+        <v>1469.5599549999999</v>
       </c>
       <c r="G10" s="1">
-        <v>0.408211</v>
+        <v>0.40821099999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.080000</v>
+        <v>1164.08</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.382000</v>
+        <v>-218.38200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1480.059269</v>
+        <v>1480.0592690000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.411128</v>
+        <v>0.41112799999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1191.530000</v>
+        <v>1191.53</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.090000</v>
+        <v>-151.09</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>1490.934581</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.414148</v>
+        <v>0.41414800000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1199.310000</v>
+        <v>1199.31</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.724000</v>
+        <v>-128.72399999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1501.455697</v>
+        <v>1501.4556970000001</v>
       </c>
       <c r="V10" s="1">
-        <v>0.417071</v>
+        <v>0.41707100000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.410000</v>
+        <v>1206.4100000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.379000</v>
+        <v>-107.379</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>1511.618250</v>
+        <v>1511.61825</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.419894</v>
+        <v>0.41989399999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.942100</v>
+        <v>-89.942099999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>1521.832829</v>
+        <v>1521.8328289999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.422731</v>
+        <v>0.42273100000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.280000</v>
+        <v>1218.28</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.980400</v>
+        <v>-84.980400000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>1532.009247</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.425558</v>
+        <v>0.42555799999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.667000</v>
+        <v>-87.667000000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>1542.647954</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.428513</v>
+        <v>0.42851299999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR10" s="1">
-        <v>-98.843500</v>
+        <v>-98.843500000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>1553.029203</v>
+        <v>1553.0292030000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.431397</v>
+        <v>0.43139699999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="AW10" s="1">
-        <v>-117.283000</v>
+        <v>-117.283</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>1563.986822</v>
+        <v>1563.9868220000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.434441</v>
+        <v>0.43444100000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-134.090000</v>
+        <v>-134.09</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1574.636950</v>
+        <v>1574.6369500000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.437399</v>
+        <v>0.43739899999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1288.730000</v>
+        <v>1288.73</v>
       </c>
       <c r="BG10" s="1">
-        <v>-213.184000</v>
+        <v>-213.184</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>1585.398121</v>
+        <v>1585.3981209999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>0.440388</v>
       </c>
       <c r="BK10" s="1">
-        <v>1354.620000</v>
+        <v>1354.62</v>
       </c>
       <c r="BL10" s="1">
-        <v>-346.205000</v>
+        <v>-346.20499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>1596.012508</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.443337</v>
+        <v>0.44333699999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1462.780000</v>
+        <v>1462.78</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-565.158000</v>
+        <v>-565.15800000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>1606.836700</v>
+        <v>1606.8367000000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.446344</v>
+        <v>0.44634400000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1588.550000</v>
+        <v>1588.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-813.883000</v>
+        <v>-813.88300000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>1617.648990</v>
+        <v>1617.6489899999999</v>
       </c>
       <c r="BY10" s="1">
         <v>0.449347</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1734.660000</v>
+        <v>1734.66</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1087.290000</v>
+        <v>-1087.29</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>1629.653166</v>
+        <v>1629.6531660000001</v>
       </c>
       <c r="CD10" s="1">
         <v>0.452681</v>
       </c>
       <c r="CE10" s="1">
-        <v>2141.540000</v>
+        <v>2141.54</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1754.740000</v>
+        <v>-1754.74</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>1459.144959</v>
       </c>
       <c r="B11" s="1">
-        <v>0.405318</v>
+        <v>0.40531800000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1142.270000</v>
+        <v>1142.27</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.481000</v>
+        <v>-260.48099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1470.248934</v>
       </c>
       <c r="G11" s="1">
-        <v>0.408402</v>
+        <v>0.40840199999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1164.130000</v>
+        <v>1164.1300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.373000</v>
+        <v>-218.37299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1480.752212</v>
+        <v>1480.7522120000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0.411320</v>
+        <v>0.41132000000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1191.770000</v>
+        <v>1191.77</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.042000</v>
+        <v>-151.042</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1491.284743</v>
+        <v>1491.2847429999999</v>
       </c>
       <c r="Q11" s="1">
         <v>0.414246</v>
       </c>
       <c r="R11" s="1">
-        <v>1199.260000</v>
+        <v>1199.26</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.757000</v>
+        <v>-128.75700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1501.801409</v>
+        <v>1501.8014089999999</v>
       </c>
       <c r="V11" s="1">
-        <v>0.417167</v>
+        <v>0.41716700000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.440000</v>
+        <v>1206.44</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.457000</v>
+        <v>-107.45699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1511.969882</v>
+        <v>1511.9698820000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.419992</v>
+        <v>0.41999199999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.850900</v>
+        <v>-89.850899999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1522.490555</v>
+        <v>1522.4905550000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.422914</v>
+        <v>0.42291400000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.300000</v>
+        <v>1218.3</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.955200</v>
+        <v>-84.955200000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1532.671408</v>
+        <v>1532.6714079999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.425742</v>
+        <v>0.42574200000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.681300</v>
+        <v>-87.681299999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1543.099828</v>
+        <v>1543.0998279999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.428639</v>
+        <v>0.42863899999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR11" s="1">
-        <v>-98.843100</v>
+        <v>-98.843100000000007</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>1553.390787</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.431497</v>
+        <v>0.43149700000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW11" s="1">
-        <v>-117.300000</v>
+        <v>-117.3</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>1564.376677</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.434549</v>
+        <v>0.43454900000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1250.510000</v>
+        <v>1250.51</v>
       </c>
       <c r="BB11" s="1">
-        <v>-134.065000</v>
+        <v>-134.065</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>1574.998008</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.437499</v>
+        <v>0.43749900000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1288.730000</v>
+        <v>1288.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-213.171000</v>
+        <v>-213.17099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>1585.825177</v>
+        <v>1585.8251769999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.440507</v>
+        <v>0.44050699999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="BL11" s="1">
-        <v>-346.211000</v>
+        <v>-346.21100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>1596.436124</v>
+        <v>1596.4361240000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.443454</v>
+        <v>0.44345400000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1462.730000</v>
+        <v>1462.73</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-565.174000</v>
+        <v>-565.17399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>1607.271692</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.446464</v>
+        <v>0.44646400000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1588.770000</v>
+        <v>1588.77</v>
       </c>
       <c r="BV11" s="1">
-        <v>-813.999000</v>
+        <v>-813.99900000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>1618.070590</v>
+        <v>1618.07059</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.449464</v>
+        <v>0.44946399999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1734.880000</v>
+        <v>1734.88</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1087.180000</v>
+        <v>-1087.18</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1630.174463</v>
+        <v>1630.1744630000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.452826</v>
+        <v>0.45282600000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2142.790000</v>
+        <v>2142.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1753.430000</v>
+        <v>-1753.43</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>1459.829935</v>
       </c>
       <c r="B12" s="1">
-        <v>0.405508</v>
+        <v>0.40550799999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1142.390000</v>
+        <v>1142.3900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.593000</v>
+        <v>-260.59300000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1470.593152</v>
+        <v>1470.5931519999999</v>
       </c>
       <c r="G12" s="1">
-        <v>0.408498</v>
+        <v>0.40849800000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.850000</v>
+        <v>1163.8499999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.540000</v>
+        <v>-218.54</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>1481.100371</v>
       </c>
       <c r="L12" s="1">
-        <v>0.411417</v>
+        <v>0.41141699999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.480000</v>
+        <v>1191.48</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.212000</v>
+        <v>-151.21199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1491.630436</v>
+        <v>1491.6304359999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.414342</v>
+        <v>0.41434199999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1199.180000</v>
+        <v>1199.18</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.724000</v>
+        <v>-128.72399999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1502.443259</v>
+        <v>1502.4432589999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.417345</v>
+        <v>0.41734500000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.350000</v>
+        <v>1206.3499999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.479000</v>
+        <v>-107.479</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>1512.622122</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.420173</v>
+        <v>0.42017300000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.762400</v>
+        <v>-89.7624</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1522.866987</v>
+        <v>1522.8669870000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.423019</v>
+        <v>0.42301899999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.210000</v>
+        <v>1218.21</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.912000</v>
+        <v>-84.912000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1533.067710</v>
+        <v>1533.06771</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.425852</v>
+        <v>0.42585200000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.651400</v>
+        <v>-87.651399999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>1543.457904</v>
+        <v>1543.4579040000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.428738</v>
+        <v>0.42873800000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR12" s="1">
-        <v>-98.861900</v>
+        <v>-98.861900000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>1553.754354</v>
+        <v>1553.7543539999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.431598</v>
+        <v>0.43159799999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW12" s="1">
-        <v>-117.284000</v>
+        <v>-117.28400000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>1564.727844</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.434647</v>
+        <v>0.43464700000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB12" s="1">
-        <v>-134.065000</v>
+        <v>-134.065</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>1575.419638</v>
+        <v>1575.4196380000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.437617</v>
+        <v>0.43761699999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG12" s="1">
-        <v>-213.187000</v>
+        <v>-213.18700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>1586.148071</v>
+        <v>1586.1480710000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.440597</v>
+        <v>0.44059700000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1354.560000</v>
+        <v>1354.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-346.198000</v>
+        <v>-346.19799999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>1596.830905</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.443564</v>
+        <v>0.44356400000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1462.770000</v>
+        <v>1462.77</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-565.162000</v>
+        <v>-565.16200000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>1607.700235</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.446583</v>
+        <v>0.44658300000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1588.800000</v>
+        <v>1588.8</v>
       </c>
       <c r="BV12" s="1">
-        <v>-814.046000</v>
+        <v>-814.04600000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>1618.491693</v>
+        <v>1618.4916929999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.449581</v>
+        <v>0.44958100000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1734.770000</v>
+        <v>1734.77</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1087.220000</v>
+        <v>-1087.22</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>1630.690098</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.452969</v>
+        <v>0.45296900000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2141.230000</v>
+        <v>2141.23</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1752.310000</v>
+        <v>-1752.31</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>1460.176638</v>
+        <v>1460.1766379999999</v>
       </c>
       <c r="B13" s="1">
-        <v>0.405605</v>
+        <v>0.40560499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1142.390000</v>
+        <v>1142.3900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.460000</v>
+        <v>-260.45999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1470.939328</v>
+        <v>1470.9393279999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.408594</v>
+        <v>0.40859400000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.780000</v>
+        <v>1163.78</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.655000</v>
+        <v>-218.655</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1481.443603</v>
+        <v>1481.4436029999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0.411512</v>
+        <v>0.41151199999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1191.440000</v>
+        <v>1191.44</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.397000</v>
+        <v>-151.39699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1492.284660</v>
+        <v>1492.28466</v>
       </c>
       <c r="Q13" s="1">
         <v>0.414524</v>
       </c>
       <c r="R13" s="1">
-        <v>1199.190000</v>
+        <v>1199.19</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.688000</v>
+        <v>-128.68799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1502.831590</v>
+        <v>1502.83159</v>
       </c>
       <c r="V13" s="1">
-        <v>0.417453</v>
+        <v>0.41745300000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.396000</v>
+        <v>-107.396</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>1513.015448</v>
+        <v>1513.0154480000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.420282</v>
+        <v>0.42028199999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.734500</v>
+        <v>-89.734499999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>1523.215179</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.423115</v>
+        <v>0.42311500000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.310000</v>
+        <v>1218.31</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.941400</v>
+        <v>-84.941400000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>1533.406479</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.425946</v>
+        <v>0.42594599999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.120000</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.649900</v>
+        <v>-87.649900000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>1543.817999</v>
+        <v>1543.8179990000001</v>
       </c>
       <c r="AP13" s="1">
         <v>0.428838</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1232.780000</v>
+        <v>1232.78</v>
       </c>
       <c r="AR13" s="1">
-        <v>-98.840800</v>
+        <v>-98.840800000000002</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>1554.169506</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.431714</v>
+        <v>0.43171399999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW13" s="1">
-        <v>-117.297000</v>
+        <v>-117.297</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>1565.145837</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.434763</v>
+        <v>0.43476300000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB13" s="1">
-        <v>-134.074000</v>
+        <v>-134.07400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1575.722167</v>
+        <v>1575.7221669999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.437701</v>
+        <v>0.43770100000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1288.710000</v>
+        <v>1288.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-213.186000</v>
+        <v>-213.18600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1586.524039</v>
+        <v>1586.5240389999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.440701</v>
+        <v>0.44070100000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="BL13" s="1">
-        <v>-346.209000</v>
+        <v>-346.209</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>1597.252537</v>
+        <v>1597.2525370000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.443681</v>
+        <v>0.44368099999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1462.810000</v>
+        <v>1462.81</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-565.162000</v>
+        <v>-565.16200000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>1608.109963</v>
+        <v>1608.1099630000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.446697</v>
+        <v>0.44669700000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1588.780000</v>
+        <v>1588.78</v>
       </c>
       <c r="BV13" s="1">
-        <v>-814.116000</v>
+        <v>-814.11599999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>1618.941572</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.449706</v>
+        <v>0.44970599999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1734.740000</v>
+        <v>1734.74</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1087.260000</v>
+        <v>-1087.26</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>1631.206550</v>
+        <v>1631.2065500000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.453113</v>
+        <v>0.45311299999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2140.350000</v>
+        <v>2140.35</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1753.590000</v>
+        <v>-1753.59</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>1460.514911</v>
       </c>
       <c r="B14" s="1">
-        <v>0.405699</v>
+        <v>0.40569899999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1142.380000</v>
+        <v>1142.3800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.434000</v>
+        <v>-260.43400000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1471.590576</v>
+        <v>1471.5905760000001</v>
       </c>
       <c r="G14" s="1">
         <v>0.408775</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.050000</v>
+        <v>1164.05</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.399000</v>
+        <v>-218.399</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1482.102785</v>
       </c>
       <c r="L14" s="1">
-        <v>0.411695</v>
+        <v>0.41169499999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1191.570000</v>
+        <v>1191.57</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.451000</v>
+        <v>-151.45099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1492.679507</v>
+        <v>1492.6795070000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.414633</v>
+        <v>0.41463299999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>1199.270000</v>
+        <v>1199.27</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.648000</v>
+        <v>-128.648</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>1503.173333</v>
       </c>
       <c r="V14" s="1">
-        <v>0.417548</v>
+        <v>0.41754799999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.338000</v>
+        <v>-107.33799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>1513.362152</v>
+        <v>1513.3621519999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.420378</v>
+        <v>0.42037799999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.699200</v>
+        <v>-89.699200000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>1523.558411</v>
@@ -3655,28 +4071,28 @@
         <v>0.423211</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.010100</v>
+        <v>-85.010099999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1533.754211</v>
+        <v>1533.7542109999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.426043</v>
+        <v>0.42604300000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.633300</v>
+        <v>-87.633300000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>1544.242602</v>
@@ -3685,43 +4101,43 @@
         <v>0.428956</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR14" s="1">
-        <v>-98.878700</v>
+        <v>-98.878699999999995</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>1554.486483</v>
+        <v>1554.4864829999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.431802</v>
+        <v>0.43180200000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW14" s="1">
-        <v>-117.292000</v>
+        <v>-117.292</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>1565.449523</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.434847</v>
+        <v>0.43484699999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB14" s="1">
-        <v>-134.054000</v>
+        <v>-134.054</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>1576.082263</v>
@@ -3730,58 +4146,58 @@
         <v>0.437801</v>
       </c>
       <c r="BF14" s="1">
-        <v>1288.730000</v>
+        <v>1288.73</v>
       </c>
       <c r="BG14" s="1">
-        <v>-213.177000</v>
+        <v>-213.17699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1586.926294</v>
+        <v>1586.9262940000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.440813</v>
+        <v>0.44081300000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1354.580000</v>
+        <v>1354.58</v>
       </c>
       <c r="BL14" s="1">
-        <v>-346.218000</v>
+        <v>-346.21800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>1597.648808</v>
+        <v>1597.6488079999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.443791</v>
+        <v>0.44379099999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1462.830000</v>
+        <v>1462.83</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-565.139000</v>
+        <v>-565.13900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>1608.539963</v>
+        <v>1608.5399629999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.446817</v>
+        <v>0.44681700000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1588.890000</v>
+        <v>1588.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-814.150000</v>
+        <v>-814.15</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>1619.372588</v>
@@ -3790,135 +4206,135 @@
         <v>0.449826</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1734.760000</v>
+        <v>1734.76</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1087.140000</v>
+        <v>-1087.1400000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>1631.725948</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.453257</v>
+        <v>0.45325700000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2141.870000</v>
+        <v>2141.87</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1754.330000</v>
+        <v>-1754.33</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>1461.175581</v>
       </c>
       <c r="B15" s="1">
-        <v>0.405882</v>
+        <v>0.40588200000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1142.460000</v>
+        <v>1142.46</v>
       </c>
       <c r="D15" s="1">
-        <v>-260.441000</v>
+        <v>-260.44099999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1471.973486</v>
+        <v>1471.9734860000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.408882</v>
+        <v>0.40888200000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1163.830000</v>
+        <v>1163.83</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.534000</v>
+        <v>-218.53399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1482.480273</v>
+        <v>1482.4802729999999</v>
       </c>
       <c r="L15" s="1">
-        <v>0.411800</v>
+        <v>0.4118</v>
       </c>
       <c r="M15" s="1">
-        <v>1191.370000</v>
+        <v>1191.3699999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.920000</v>
+        <v>-150.91999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1493.024691</v>
+        <v>1493.0246910000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.414729</v>
+        <v>0.41472900000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.742000</v>
+        <v>-128.74199999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1503.518054</v>
+        <v>1503.5180539999999</v>
       </c>
       <c r="V15" s="1">
-        <v>0.417644</v>
+        <v>0.41764400000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.400000</v>
+        <v>1206.4000000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.394000</v>
+        <v>-107.39400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>1513.709876</v>
+        <v>1513.7098759999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.420475</v>
+        <v>0.42047499999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.892000</v>
+        <v>-89.891999999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>1523.982986</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.423329</v>
+        <v>0.42332900000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.320000</v>
+        <v>1218.32</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.944400</v>
+        <v>-84.944400000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>1534.217932</v>
@@ -3927,43 +4343,43 @@
         <v>0.426172</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.669800</v>
+        <v>-87.669799999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>1544.538686</v>
+        <v>1544.5386860000001</v>
       </c>
       <c r="AP15" s="1">
         <v>0.429039</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1232.830000</v>
+        <v>1232.83</v>
       </c>
       <c r="AR15" s="1">
-        <v>-98.852200</v>
+        <v>-98.852199999999996</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>1554.850049</v>
+        <v>1554.8500489999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.431903</v>
+        <v>0.43190299999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW15" s="1">
-        <v>-117.288000</v>
+        <v>-117.288</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>1565.806147</v>
@@ -3972,150 +4388,150 @@
         <v>0.434946</v>
       </c>
       <c r="BA15" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB15" s="1">
-        <v>-134.063000</v>
+        <v>-134.06299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>1576.443878</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.437901</v>
+        <v>0.43790099999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1288.740000</v>
+        <v>1288.74</v>
       </c>
       <c r="BG15" s="1">
-        <v>-213.173000</v>
+        <v>-213.173</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1587.675781</v>
+        <v>1587.6757809999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>0.441021</v>
       </c>
       <c r="BK15" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="BL15" s="1">
-        <v>-346.196000</v>
+        <v>-346.19600000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>1598.069417</v>
+        <v>1598.0694169999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.443908</v>
+        <v>0.44390800000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1462.840000</v>
+        <v>1462.84</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-565.151000</v>
+        <v>-565.15099999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>1608.967515</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.446935</v>
+        <v>0.44693500000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1588.980000</v>
+        <v>1588.98</v>
       </c>
       <c r="BV15" s="1">
-        <v>-814.153000</v>
+        <v>-814.15300000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>1619.790221</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.449942</v>
+        <v>0.44994200000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1734.720000</v>
+        <v>1734.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1087.090000</v>
+        <v>-1087.0899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>1632.242810</v>
+        <v>1632.24281</v>
       </c>
       <c r="CD15" s="1">
         <v>0.453401</v>
       </c>
       <c r="CE15" s="1">
-        <v>2141.050000</v>
+        <v>2141.0500000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1754.580000</v>
+        <v>-1754.58</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>1461.543116</v>
+        <v>1461.5431160000001</v>
       </c>
       <c r="B16" s="1">
-        <v>0.405984</v>
+        <v>0.40598400000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.320000</v>
+        <v>1142.32</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.701000</v>
+        <v>-260.70100000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>1472.316255</v>
       </c>
       <c r="G16" s="1">
-        <v>0.408977</v>
+        <v>0.40897699999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1164.050000</v>
+        <v>1164.05</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.297000</v>
+        <v>-218.297</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1482.825494</v>
+        <v>1482.8254939999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.411896</v>
+        <v>0.41189599999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1191.360000</v>
+        <v>1191.3599999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.956000</v>
+        <v>-150.95599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>1493.376354</v>
@@ -4124,148 +4540,148 @@
         <v>0.414827</v>
       </c>
       <c r="R16" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.712000</v>
+        <v>-128.71199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1503.937700</v>
+        <v>1503.9376999999999</v>
       </c>
       <c r="V16" s="1">
-        <v>0.417760</v>
+        <v>0.41776000000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.451000</v>
+        <v>-107.45099999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>1514.131479</v>
+        <v>1514.1314789999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.420592</v>
+        <v>0.42059200000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1213.750000</v>
+        <v>1213.75</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.747600</v>
+        <v>-89.747600000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1524.257770</v>
+        <v>1524.2577699999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.423405</v>
+        <v>0.42340499999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.940600</v>
+        <v>-84.940600000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>1534.473868</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.426243</v>
+        <v>0.42624299999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.654000</v>
+        <v>-87.653999999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>1544.899310</v>
+        <v>1544.89931</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.429139</v>
+        <v>0.42913899999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1232.820000</v>
+        <v>1232.82</v>
       </c>
       <c r="AR16" s="1">
-        <v>-98.844400</v>
+        <v>-98.844399999999993</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>1555.216560</v>
+        <v>1555.2165600000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.432005</v>
+        <v>0.43200499999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW16" s="1">
-        <v>-117.285000</v>
+        <v>-117.285</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>1566.164786</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.435046</v>
+        <v>0.43504599999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1250.510000</v>
+        <v>1250.51</v>
       </c>
       <c r="BB16" s="1">
-        <v>-134.063000</v>
+        <v>-134.06299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>1577.165524</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.438102</v>
+        <v>0.43810199999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1288.730000</v>
+        <v>1288.73</v>
       </c>
       <c r="BG16" s="1">
-        <v>-213.183000</v>
+        <v>-213.18299999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>1588.077279</v>
+        <v>1588.0772790000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>0.441133</v>
       </c>
       <c r="BK16" s="1">
-        <v>1354.580000</v>
+        <v>1354.58</v>
       </c>
       <c r="BL16" s="1">
-        <v>-346.223000</v>
+        <v>-346.22300000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>1598.467208</v>
@@ -4274,90 +4690,90 @@
         <v>0.444019</v>
       </c>
       <c r="BP16" s="1">
-        <v>1462.800000</v>
+        <v>1462.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-565.202000</v>
+        <v>-565.202</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>1609.380713</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.447050</v>
+        <v>0.44705</v>
       </c>
       <c r="BU16" s="1">
-        <v>1589.050000</v>
+        <v>1589.05</v>
       </c>
       <c r="BV16" s="1">
-        <v>-814.268000</v>
+        <v>-814.26800000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>1620.514875</v>
+        <v>1620.5148750000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.450143</v>
+        <v>0.45014300000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1734.660000</v>
+        <v>1734.66</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1087.030000</v>
+        <v>-1087.03</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>1633.110283</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.453642</v>
+        <v>0.45364199999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2140.370000</v>
+        <v>2140.37</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1753.990000</v>
+        <v>-1753.99</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>1461.882876</v>
+        <v>1461.8828759999999</v>
       </c>
       <c r="B17" s="1">
-        <v>0.406079</v>
+        <v>0.40607900000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1142.280000</v>
+        <v>1142.28</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.318000</v>
+        <v>-260.31799999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1472.661933</v>
+        <v>1472.6619330000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0.409073</v>
+        <v>0.40907300000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.130000</v>
+        <v>1164.1300000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.258000</v>
+        <v>-218.25800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>1483.173648</v>
@@ -4366,118 +4782,118 @@
         <v>0.411993</v>
       </c>
       <c r="M17" s="1">
-        <v>1191.390000</v>
+        <v>1191.3900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.328000</v>
+        <v>-151.328</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1493.792994</v>
+        <v>1493.7929939999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.414942</v>
+        <v>0.41494199999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1199.260000</v>
+        <v>1199.26</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.728000</v>
+        <v>-128.72800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1504.209013</v>
+        <v>1504.2090129999999</v>
       </c>
       <c r="V17" s="1">
-        <v>0.417836</v>
+        <v>0.41783599999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.400000</v>
+        <v>1206.4000000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.493000</v>
+        <v>-107.49299999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>1514.413207</v>
+        <v>1514.4132070000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.420670</v>
+        <v>0.42066999999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.810500</v>
+        <v>-89.810500000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>1524.600010</v>
+        <v>1524.6000100000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.423500</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.350000</v>
+        <v>1218.3499999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.932000</v>
+        <v>-84.932000000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1534.810662</v>
+        <v>1534.8106620000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.426336</v>
+        <v>0.42633599999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.641600</v>
+        <v>-87.641599999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>1545.259375</v>
+        <v>1545.2593750000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.429239</v>
+        <v>0.42923899999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR17" s="1">
-        <v>-98.880200</v>
+        <v>-98.880200000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>1555.941711</v>
+        <v>1555.9417109999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.432206</v>
+        <v>0.43220599999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW17" s="1">
-        <v>-117.312000</v>
+        <v>-117.312</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>1566.888915</v>
@@ -4486,120 +4902,120 @@
         <v>0.435247</v>
       </c>
       <c r="BA17" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB17" s="1">
-        <v>-134.070000</v>
+        <v>-134.07</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>1577.552403</v>
+        <v>1577.5524029999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.438209</v>
+        <v>0.43820900000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG17" s="1">
-        <v>-213.184000</v>
+        <v>-213.184</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>1588.453972</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.441237</v>
+        <v>0.44123699999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL17" s="1">
-        <v>-346.214000</v>
+        <v>-346.214</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>1598.888807</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.444136</v>
+        <v>0.44413599999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1462.750000</v>
+        <v>1462.75</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-565.130000</v>
+        <v>-565.13</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>1610.115784</v>
+        <v>1610.1157840000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.447254</v>
+        <v>0.44725399999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1589.000000</v>
+        <v>1589</v>
       </c>
       <c r="BV17" s="1">
-        <v>-814.407000</v>
+        <v>-814.40700000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>1620.639866</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.450178</v>
+        <v>0.45017800000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1734.680000</v>
+        <v>1734.68</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1087.110000</v>
+        <v>-1087.1099999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>1633.329056</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.453703</v>
+        <v>0.45370300000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2142.070000</v>
+        <v>2142.0700000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1754.860000</v>
+        <v>-1754.86</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>1462.225611</v>
+        <v>1462.2256110000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.406174</v>
+        <v>0.40617399999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>1142.600000</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.669000</v>
+        <v>-260.66899999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>1473.078573</v>
@@ -4608,13 +5024,13 @@
         <v>0.409188</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.810000</v>
+        <v>1163.81</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.410000</v>
+        <v>-218.41</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>1483.593265</v>
@@ -4623,163 +5039,163 @@
         <v>0.412109</v>
       </c>
       <c r="M18" s="1">
-        <v>1191.250000</v>
+        <v>1191.25</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.053000</v>
+        <v>-151.053</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1494.085633</v>
+        <v>1494.0856329999999</v>
       </c>
       <c r="Q18" s="1">
         <v>0.415024</v>
       </c>
       <c r="R18" s="1">
-        <v>1199.250000</v>
+        <v>1199.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.736000</v>
+        <v>-128.73599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1504.549273</v>
+        <v>1504.5492730000001</v>
       </c>
       <c r="V18" s="1">
-        <v>0.417930</v>
+        <v>0.41793000000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.390000</v>
+        <v>1206.3900000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.503000</v>
+        <v>-107.503</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>1514.762358</v>
+        <v>1514.7623579999999</v>
       </c>
       <c r="AA18" s="1">
         <v>0.420767</v>
       </c>
       <c r="AB18" s="1">
-        <v>1213.750000</v>
+        <v>1213.75</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.819000</v>
+        <v>-89.819000000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>1524.944728</v>
+        <v>1524.9447279999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.423596</v>
+        <v>0.42359599999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.956900</v>
+        <v>-84.956900000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>1535.507036</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.426530</v>
+        <v>0.42653000000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.657500</v>
+        <v>-87.657499999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>1545.986014</v>
+        <v>1545.9860140000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.429441</v>
+        <v>0.42944100000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR18" s="1">
-        <v>-98.868300</v>
+        <v>-98.868300000000005</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1556.305311</v>
+        <v>1556.3053110000001</v>
       </c>
       <c r="AU18" s="1">
         <v>0.432307</v>
       </c>
       <c r="AV18" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW18" s="1">
-        <v>-117.291000</v>
+        <v>-117.291</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>1567.263925</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.435351</v>
+        <v>0.43535099999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB18" s="1">
-        <v>-134.076000</v>
+        <v>-134.07599999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>1577.914979</v>
+        <v>1577.9149789999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.438310</v>
+        <v>0.43830999999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG18" s="1">
-        <v>-213.163000</v>
+        <v>-213.16300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>1589.132539</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.441426</v>
+        <v>0.44142599999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="BL18" s="1">
-        <v>-346.248000</v>
+        <v>-346.24799999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>1599.593648</v>
@@ -4788,891 +5204,891 @@
         <v>0.444332</v>
       </c>
       <c r="BP18" s="1">
-        <v>1462.800000</v>
+        <v>1462.8</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-565.182000</v>
+        <v>-565.18200000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>1610.237768</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.447288</v>
+        <v>0.44728800000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1588.990000</v>
+        <v>1588.99</v>
       </c>
       <c r="BV18" s="1">
-        <v>-814.381000</v>
+        <v>-814.38099999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>1621.087257</v>
+        <v>1621.0872569999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.450302</v>
+        <v>0.45030199999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1734.700000</v>
+        <v>1734.7</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1087.240000</v>
+        <v>-1087.24</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>1633.844857</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.453846</v>
+        <v>0.45384600000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>2143.130000</v>
+        <v>2143.13</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1753.100000</v>
+        <v>-1753.1</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>1462.653660</v>
+        <v>1462.6536599999999</v>
       </c>
       <c r="B19" s="1">
-        <v>0.406293</v>
+        <v>0.40629300000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1142.330000</v>
+        <v>1142.33</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.550000</v>
+        <v>-260.55</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1473.368734</v>
+        <v>1473.3687339999999</v>
       </c>
       <c r="G19" s="1">
-        <v>0.409269</v>
+        <v>0.40926899999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.240000</v>
+        <v>1164.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.380000</v>
+        <v>-218.38</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1483.872512</v>
+        <v>1483.8725119999999</v>
       </c>
       <c r="L19" s="1">
-        <v>0.412187</v>
+        <v>0.41218700000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.730000</v>
+        <v>1191.73</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.100000</v>
+        <v>-151.1</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1494.430886</v>
+        <v>1494.4308860000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.415120</v>
+        <v>0.41511999999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1199.210000</v>
+        <v>1199.21</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.671000</v>
+        <v>-128.67099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1504.893459</v>
+        <v>1504.8934589999999</v>
       </c>
       <c r="V19" s="1">
-        <v>0.418026</v>
+        <v>0.41802600000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.468000</v>
+        <v>-107.468</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>1515.109061</v>
+        <v>1515.1090610000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.420864</v>
+        <v>0.42086400000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.902300</v>
+        <v>-89.902299999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>1525.632810</v>
+        <v>1525.6328100000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.423787</v>
+        <v>0.42378700000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.320000</v>
+        <v>1218.32</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.957700</v>
+        <v>-84.957700000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1535.851258</v>
+        <v>1535.8512579999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.426625</v>
+        <v>0.42662499999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.659200</v>
+        <v>-87.659199999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>1546.362476</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.429545</v>
+        <v>0.42954500000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1232.820000</v>
+        <v>1232.82</v>
       </c>
       <c r="AR19" s="1">
-        <v>-98.843300</v>
+        <v>-98.843299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>1556.671823</v>
+        <v>1556.6718229999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.432409</v>
+        <v>0.43240899999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1242.410000</v>
+        <v>1242.4100000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-117.280000</v>
+        <v>-117.28</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>1567.644816</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.435457</v>
+        <v>0.43545699999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB19" s="1">
-        <v>-134.057000</v>
+        <v>-134.05699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>1578.577634</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.438494</v>
+        <v>0.43849399999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-213.195000</v>
+        <v>-213.19499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>1589.242154</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.441456</v>
+        <v>0.44145600000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="BL19" s="1">
-        <v>-346.224000</v>
+        <v>-346.22399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>1599.706710</v>
+        <v>1599.7067099999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.444363</v>
+        <v>0.44436300000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1462.810000</v>
+        <v>1462.81</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-565.173000</v>
+        <v>-565.173</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>1610.647463</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.447402</v>
+        <v>0.44740200000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1589.070000</v>
+        <v>1589.07</v>
       </c>
       <c r="BV19" s="1">
-        <v>-814.547000</v>
+        <v>-814.54700000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>1621.518314</v>
+        <v>1621.5183139999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.450422</v>
+        <v>0.45042199999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1734.880000</v>
+        <v>1734.88</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1087.300000</v>
+        <v>-1087.3</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>1634.460424</v>
+        <v>1634.4604240000001</v>
       </c>
       <c r="CD19" s="1">
         <v>0.454017</v>
       </c>
       <c r="CE19" s="1">
-        <v>2140.990000</v>
+        <v>2140.9899999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1752.080000</v>
+        <v>-1752.08</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>1462.927450</v>
+        <v>1462.9274499999999</v>
       </c>
       <c r="B20" s="1">
-        <v>0.406369</v>
+        <v>0.40636899999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1142.450000</v>
+        <v>1142.45</v>
       </c>
       <c r="D20" s="1">
-        <v>-260.524000</v>
+        <v>-260.524</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1473.718908</v>
+        <v>1473.7189080000001</v>
       </c>
       <c r="G20" s="1">
-        <v>0.409366</v>
+        <v>0.40936600000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.150000</v>
+        <v>1164.1500000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.607000</v>
+        <v>-218.607</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1484.231118</v>
+        <v>1484.2311179999999</v>
       </c>
       <c r="L20" s="1">
-        <v>0.412286</v>
+        <v>0.41228599999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.640000</v>
+        <v>1191.6400000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.116000</v>
+        <v>-151.11600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1494.783040</v>
+        <v>1494.78304</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.415218</v>
+        <v>0.41521799999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.660000</v>
+        <v>-128.66</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>1505.578467</v>
       </c>
       <c r="V20" s="1">
-        <v>0.418216</v>
+        <v>0.41821599999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.300000</v>
+        <v>1206.3</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.355000</v>
+        <v>-107.355</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1515.805446</v>
+        <v>1515.8054460000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.421057</v>
+        <v>0.42105700000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.550000</v>
+        <v>1213.55</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.861400</v>
+        <v>-89.861400000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>1525.976903</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.423882</v>
+        <v>0.42388199999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.999300</v>
+        <v>-84.999300000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>1536.206394</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.426724</v>
+        <v>0.42672399999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.678100</v>
+        <v>-87.678100000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>1546.726043</v>
+        <v>1546.7260429999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.429646</v>
+        <v>0.42964599999999997</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1232.820000</v>
+        <v>1232.82</v>
       </c>
       <c r="AR20" s="1">
-        <v>-98.850700</v>
+        <v>-98.850700000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>1557.351342</v>
+        <v>1557.3513419999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.432598</v>
+        <v>0.43259799999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1242.410000</v>
+        <v>1242.4100000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-117.304000</v>
+        <v>-117.304</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>1568.086751</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.435580</v>
+        <v>0.43558000000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB20" s="1">
-        <v>-134.074000</v>
+        <v>-134.07400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>1579.031969</v>
+        <v>1579.0319689999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.438620</v>
+        <v>0.43862000000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1288.740000</v>
+        <v>1288.74</v>
       </c>
       <c r="BG20" s="1">
-        <v>-213.187000</v>
+        <v>-213.18700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>1589.606179</v>
+        <v>1589.6061790000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.441557</v>
+        <v>0.44155699999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL20" s="1">
-        <v>-346.224000</v>
+        <v>-346.22399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>1600.131782</v>
+        <v>1600.1317819999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.444481</v>
+        <v>0.44448100000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1462.820000</v>
+        <v>1462.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-565.145000</v>
+        <v>-565.14499999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>1611.081960</v>
+        <v>1611.08196</v>
       </c>
       <c r="BT20" s="1">
         <v>0.447523</v>
       </c>
       <c r="BU20" s="1">
-        <v>1588.960000</v>
+        <v>1588.96</v>
       </c>
       <c r="BV20" s="1">
-        <v>-814.565000</v>
+        <v>-814.56500000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>1621.941370</v>
+        <v>1621.94137</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.450539</v>
+        <v>0.45053900000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1734.670000</v>
+        <v>1734.67</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1087.080000</v>
+        <v>-1087.08</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>1634.877559</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.454133</v>
+        <v>0.45413300000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2142.040000</v>
+        <v>2142.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1752.520000</v>
+        <v>-1752.52</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>1463.269196</v>
       </c>
       <c r="B21" s="1">
-        <v>0.406464</v>
+        <v>0.40646399999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1142.490000</v>
+        <v>1142.49</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.517000</v>
+        <v>-260.517</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1474.062172</v>
+        <v>1474.0621719999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.409462</v>
+        <v>0.40946199999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.990000</v>
+        <v>1163.99</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.246000</v>
+        <v>-218.24600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>1484.574883</v>
       </c>
       <c r="L21" s="1">
-        <v>0.412382</v>
+        <v>0.41238200000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.670000</v>
+        <v>1191.67</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.311000</v>
+        <v>-151.31100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1495.481408</v>
+        <v>1495.4814080000001</v>
       </c>
       <c r="Q21" s="1">
         <v>0.415412</v>
       </c>
       <c r="R21" s="1">
-        <v>1199.330000</v>
+        <v>1199.33</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.660000</v>
+        <v>-128.66</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>1505.922695</v>
       </c>
       <c r="V21" s="1">
-        <v>0.418312</v>
+        <v>0.41831200000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.370000</v>
+        <v>1206.3699999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.424000</v>
+        <v>-107.42400000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>1516.159092</v>
+        <v>1516.1590920000001</v>
       </c>
       <c r="AA21" s="1">
         <v>0.421155</v>
       </c>
       <c r="AB21" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.770100</v>
+        <v>-89.770099999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1526.318151</v>
+        <v>1526.3181509999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.423977</v>
+        <v>0.42397699999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.978600</v>
+        <v>-84.9786</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>1536.864912</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.426907</v>
+        <v>0.42690699999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.090000</v>
+        <v>1225.0899999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.698200</v>
+        <v>-87.6982</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>1547.392666</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.429831</v>
+        <v>0.42983100000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR21" s="1">
-        <v>-98.837700</v>
+        <v>-98.837699999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>1557.765997</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.432713</v>
+        <v>0.43271300000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1242.410000</v>
+        <v>1242.4100000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-117.283000</v>
+        <v>-117.283</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>1568.360575</v>
+        <v>1568.3605749999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.435656</v>
+        <v>0.43565599999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB21" s="1">
-        <v>-134.082000</v>
+        <v>-134.08199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>1579.392097</v>
+        <v>1579.3920969999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.438720</v>
+        <v>0.43872</v>
       </c>
       <c r="BF21" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG21" s="1">
-        <v>-213.184000</v>
+        <v>-213.184</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>1589.977683</v>
+        <v>1589.9776830000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.441660</v>
+        <v>0.44166</v>
       </c>
       <c r="BK21" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL21" s="1">
-        <v>-346.241000</v>
+        <v>-346.24099999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>1600.524152</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.444590</v>
+        <v>0.44458999999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1462.800000</v>
+        <v>1462.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-565.187000</v>
+        <v>-565.18700000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>1611.508022</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.447641</v>
+        <v>0.44764100000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1589.030000</v>
+        <v>1589.03</v>
       </c>
       <c r="BV21" s="1">
-        <v>-814.715000</v>
+        <v>-814.71500000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>1622.363496</v>
+        <v>1622.3634959999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.450657</v>
+        <v>0.45065699999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1734.750000</v>
+        <v>1734.75</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1087.380000</v>
+        <v>-1087.3800000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>1635.430567</v>
+        <v>1635.4305670000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.454286</v>
+        <v>0.45428600000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>2142.760000</v>
+        <v>2142.7600000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1753.630000</v>
+        <v>-1753.63</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>1463.609947</v>
+        <v>1463.6099469999999</v>
       </c>
       <c r="B22" s="1">
-        <v>0.406558</v>
+        <v>0.40655799999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>1142.390000</v>
+        <v>1142.3900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.450000</v>
+        <v>-260.45</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1474.753079</v>
+        <v>1474.7530790000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.409654</v>
+        <v>0.40965400000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.960000</v>
+        <v>1163.96</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.970000</v>
+        <v>-217.97</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>1485.274205</v>
+        <v>1485.2742049999999</v>
       </c>
       <c r="L22" s="1">
         <v>0.412576</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.530000</v>
+        <v>1191.53</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.964000</v>
+        <v>-150.964</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>1495.828111</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.415508</v>
+        <v>0.41550799999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1199.290000</v>
+        <v>1199.29</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.752000</v>
+        <v>-128.75200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>1506.267875</v>
@@ -5681,88 +6097,88 @@
         <v>0.418408</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.380000</v>
+        <v>1206.3800000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.384000</v>
+        <v>-107.384</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>1516.501829</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.421251</v>
+        <v>0.42125099999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.743300</v>
+        <v>-89.743300000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>1526.956998</v>
+        <v>1526.9569980000001</v>
       </c>
       <c r="AF22" s="1">
         <v>0.424155</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.975400</v>
+        <v>-84.975399999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1537.250473</v>
+        <v>1537.2504730000001</v>
       </c>
       <c r="AK22" s="1">
         <v>0.427014</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.675900</v>
+        <v>-87.675899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>1547.804346</v>
+        <v>1547.8043459999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.429946</v>
+        <v>0.42994599999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR22" s="1">
-        <v>-98.851000</v>
+        <v>-98.850999999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>1558.130557</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.432814</v>
+        <v>0.43281399999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW22" s="1">
-        <v>-117.300000</v>
+        <v>-117.3</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>1568.718687</v>
@@ -5771,43 +6187,43 @@
         <v>0.435755</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-134.089000</v>
+        <v>-134.089</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>1579.753648</v>
+        <v>1579.7536480000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.438820</v>
+        <v>0.43881999999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1288.690000</v>
+        <v>1288.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-213.191000</v>
+        <v>-213.191</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>1590.405730</v>
+        <v>1590.4057299999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.441779</v>
+        <v>0.44177899999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL22" s="1">
-        <v>-346.254000</v>
+        <v>-346.25400000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>1600.983412</v>
@@ -5816,61 +6232,61 @@
         <v>0.444718</v>
       </c>
       <c r="BP22" s="1">
-        <v>1462.800000</v>
+        <v>1462.8</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-565.147000</v>
+        <v>-565.14700000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>1611.922215</v>
+        <v>1611.9222150000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.447756</v>
+        <v>0.44775599999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1588.880000</v>
+        <v>1588.88</v>
       </c>
       <c r="BV22" s="1">
-        <v>-814.700000</v>
+        <v>-814.7</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>1622.788567</v>
+        <v>1622.7885670000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.450775</v>
+        <v>0.45077499999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1734.730000</v>
+        <v>1734.73</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1087.120000</v>
+        <v>-1087.1199999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>1635.960790</v>
+        <v>1635.9607900000001</v>
       </c>
       <c r="CD22" s="1">
         <v>0.454434</v>
       </c>
       <c r="CE22" s="1">
-        <v>2141.180000</v>
+        <v>2141.1799999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1752.210000</v>
+        <v>-1752.21</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>1464.293469</v>
       </c>
@@ -5878,88 +6294,88 @@
         <v>0.406748</v>
       </c>
       <c r="C23" s="1">
-        <v>1142.460000</v>
+        <v>1142.46</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.451000</v>
+        <v>-260.45100000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1475.092827</v>
+        <v>1475.0928269999999</v>
       </c>
       <c r="G23" s="1">
         <v>0.409748</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.740000</v>
+        <v>1163.74</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.254000</v>
+        <v>-218.25399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1485.617932</v>
+        <v>1485.6179320000001</v>
       </c>
       <c r="L23" s="1">
-        <v>0.412672</v>
+        <v>0.41267199999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.380000</v>
+        <v>1191.3800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.230000</v>
+        <v>-151.22999999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1496.174286</v>
+        <v>1496.1742859999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.415604</v>
+        <v>0.41560399999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.732000</v>
+        <v>-128.732</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1506.919651</v>
+        <v>1506.9196509999999</v>
       </c>
       <c r="V23" s="1">
-        <v>0.418589</v>
+        <v>0.41858899999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.346000</v>
+        <v>-107.346</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>1517.163493</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.421434</v>
+        <v>0.42143399999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.880300</v>
+        <v>-89.880300000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>1527.347845</v>
@@ -5968,270 +6384,270 @@
         <v>0.424263</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.240000</v>
+        <v>1218.24</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.961700</v>
+        <v>-84.961699999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>1537.597704</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.427110</v>
+        <v>0.42710999999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.140000</v>
+        <v>1225.1400000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.669100</v>
+        <v>-87.6691</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>1548.188746</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.430052</v>
+        <v>0.43005199999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR23" s="1">
-        <v>-98.865900</v>
+        <v>-98.865899999999996</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>1558.498620</v>
+        <v>1558.4986200000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.432916</v>
+        <v>0.43291600000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1242.450000</v>
+        <v>1242.45</v>
       </c>
       <c r="AW23" s="1">
-        <v>-117.322000</v>
+        <v>-117.322</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>1569.129356</v>
+        <v>1569.1293559999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.435869</v>
+        <v>0.43586900000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB23" s="1">
-        <v>-134.092000</v>
+        <v>-134.09200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>1580.168335</v>
+        <v>1580.1683350000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.438936</v>
+        <v>0.43893599999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1288.710000</v>
+        <v>1288.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-213.192000</v>
+        <v>-213.19200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>1590.731147</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.441870</v>
+        <v>0.44186999999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="BL23" s="1">
-        <v>-346.215000</v>
+        <v>-346.21499999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>1601.347476</v>
+        <v>1601.3474759999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.444819</v>
+        <v>0.44481900000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1462.820000</v>
+        <v>1462.82</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-565.195000</v>
+        <v>-565.19500000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1612.350726</v>
+        <v>1612.3507259999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.447875</v>
+        <v>0.44787500000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1588.930000</v>
+        <v>1588.93</v>
       </c>
       <c r="BV23" s="1">
-        <v>-814.839000</v>
+        <v>-814.83900000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>1623.205672</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.450890</v>
+        <v>0.45089000000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1734.830000</v>
+        <v>1734.83</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1087.250000</v>
+        <v>-1087.25</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>1636.480597</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.454578</v>
+        <v>0.45457799999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2140.850000</v>
+        <v>2140.85</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1755.070000</v>
+        <v>-1755.07</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>1464.639144</v>
       </c>
       <c r="B24" s="1">
-        <v>0.406844</v>
+        <v>0.40684399999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1142.350000</v>
+        <v>1142.3499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.438000</v>
+        <v>-260.43799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1475.438538</v>
+        <v>1475.4385380000001</v>
       </c>
       <c r="G24" s="1">
-        <v>0.409844</v>
+        <v>0.40984399999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1164.400000</v>
+        <v>1164.4000000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.219000</v>
+        <v>-218.21899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1486.267228</v>
+        <v>1486.2672279999999</v>
       </c>
       <c r="L24" s="1">
         <v>0.412852</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.490000</v>
+        <v>1191.49</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.004000</v>
+        <v>-151.00399999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1496.820607</v>
+        <v>1496.8206070000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.415784</v>
+        <v>0.41578399999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1199.190000</v>
+        <v>1199.19</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.668000</v>
+        <v>-128.66800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>1507.298065</v>
       </c>
       <c r="V24" s="1">
-        <v>0.418694</v>
+        <v>0.41869400000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.440000</v>
+        <v>1206.44</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.385000</v>
+        <v>-107.38500000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>1517.550130</v>
+        <v>1517.5501300000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.421542</v>
+        <v>0.42154199999999997</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.897100</v>
+        <v>-89.897099999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>1527.691574</v>
+        <v>1527.6915739999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.424359</v>
+        <v>0.42435899999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.003500</v>
+        <v>-85.003500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>1537.945367</v>
@@ -6240,118 +6656,118 @@
         <v>0.427207</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.130000</v>
+        <v>1225.1300000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.686300</v>
+        <v>-87.686300000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>1548.549337</v>
+        <v>1548.5493369999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.430153</v>
+        <v>0.43015300000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR24" s="1">
-        <v>-98.851100</v>
+        <v>-98.851100000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>1558.911291</v>
+        <v>1558.9112909999999</v>
       </c>
       <c r="AU24" s="1">
         <v>0.433031</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="AW24" s="1">
-        <v>-117.299000</v>
+        <v>-117.29900000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>1569.436863</v>
+        <v>1569.4368629999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.435955</v>
+        <v>0.43595499999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB24" s="1">
-        <v>-134.079000</v>
+        <v>-134.07900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>1580.477807</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.439022</v>
+        <v>0.43902200000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1288.740000</v>
+        <v>1288.74</v>
       </c>
       <c r="BG24" s="1">
-        <v>-213.196000</v>
+        <v>-213.196</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>1591.130881</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.441981</v>
+        <v>0.44198100000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL24" s="1">
-        <v>-346.217000</v>
+        <v>-346.21699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>1601.768085</v>
+        <v>1601.7680849999999</v>
       </c>
       <c r="BO24" s="1">
         <v>0.444936</v>
       </c>
       <c r="BP24" s="1">
-        <v>1462.770000</v>
+        <v>1462.77</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-565.204000</v>
+        <v>-565.20399999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>1612.781284</v>
+        <v>1612.7812839999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.447995</v>
+        <v>0.44799499999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1588.790000</v>
+        <v>1588.79</v>
       </c>
       <c r="BV24" s="1">
-        <v>-814.713000</v>
+        <v>-814.71299999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>1623.653589</v>
@@ -6360,165 +6776,165 @@
         <v>0.451015</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1734.740000</v>
+        <v>1734.74</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1087.180000</v>
+        <v>-1087.18</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>1637.020244</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.454728</v>
+        <v>0.45472800000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>2142.560000</v>
+        <v>2142.56</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1752.970000</v>
+        <v>-1752.97</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>1464.978408</v>
+        <v>1464.9784079999999</v>
       </c>
       <c r="B25" s="1">
-        <v>0.406938</v>
+        <v>0.40693800000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1142.420000</v>
+        <v>1142.42</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.333000</v>
+        <v>-260.33300000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1476.099705</v>
+        <v>1476.0997050000001</v>
       </c>
       <c r="G25" s="1">
         <v>0.410028</v>
       </c>
       <c r="H25" s="1">
-        <v>1164.080000</v>
+        <v>1164.08</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.377000</v>
+        <v>-218.37700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>1486.654571</v>
       </c>
       <c r="L25" s="1">
-        <v>0.412960</v>
+        <v>0.41295999999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1191.810000</v>
+        <v>1191.81</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.182000</v>
+        <v>-151.18199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>1497.223326</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.415895</v>
+        <v>0.41589500000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1199.220000</v>
+        <v>1199.22</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.663000</v>
+        <v>-128.66300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>1507.641791</v>
       </c>
       <c r="V25" s="1">
-        <v>0.418789</v>
+        <v>0.41878900000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.420000</v>
+        <v>1206.42</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.420000</v>
+        <v>-107.42</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>1517.896081</v>
+        <v>1517.8960810000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.421638</v>
+        <v>0.42163800000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.887800</v>
+        <v>-89.887799999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1528.036820</v>
+        <v>1528.03682</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.424455</v>
+        <v>0.42445500000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.007300</v>
+        <v>-85.007300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>1538.357047</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.427321</v>
+        <v>0.42732100000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.150000</v>
+        <v>1225.1500000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.652500</v>
+        <v>-87.652500000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>1548.961017</v>
+        <v>1548.9610170000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.430267</v>
+        <v>0.43026700000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1232.820000</v>
+        <v>1232.82</v>
       </c>
       <c r="AR25" s="1">
-        <v>-98.850900</v>
+        <v>-98.850899999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>1559.225725</v>
@@ -6527,135 +6943,135 @@
         <v>0.433118</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="AW25" s="1">
-        <v>-117.307000</v>
+        <v>-117.307</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>1569.797951</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.436055</v>
+        <v>0.43605500000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB25" s="1">
-        <v>-134.056000</v>
+        <v>-134.05600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>1580.837406</v>
+        <v>1580.8374060000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.439122</v>
+        <v>0.43912200000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1288.720000</v>
+        <v>1288.72</v>
       </c>
       <c r="BG25" s="1">
-        <v>-213.194000</v>
+        <v>-213.19399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>1591.503872</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.442084</v>
+        <v>0.44208399999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="BL25" s="1">
-        <v>-346.234000</v>
+        <v>-346.23399999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>1602.584499</v>
+        <v>1602.5844990000001</v>
       </c>
       <c r="BO25" s="1">
         <v>0.445162</v>
       </c>
       <c r="BP25" s="1">
-        <v>1462.760000</v>
+        <v>1462.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-565.163000</v>
+        <v>-565.16300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>1613.190452</v>
+        <v>1613.1904520000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.448108</v>
+        <v>0.44810800000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1588.660000</v>
+        <v>1588.66</v>
       </c>
       <c r="BV25" s="1">
-        <v>-814.863000</v>
+        <v>-814.86300000000006</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>1624.074662</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.451132</v>
+        <v>0.45113199999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1734.840000</v>
+        <v>1734.84</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1087.190000</v>
+        <v>-1087.19</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>1637.561875</v>
+        <v>1637.5618750000001</v>
       </c>
       <c r="CD25" s="1">
         <v>0.454878</v>
       </c>
       <c r="CE25" s="1">
-        <v>2140.110000</v>
+        <v>2140.11</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1753.000000</v>
+        <v>-1753</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>1465.625223</v>
       </c>
       <c r="B26" s="1">
-        <v>0.407118</v>
+        <v>0.40711799999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1142.260000</v>
+        <v>1142.26</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.651000</v>
+        <v>-260.65100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>1476.474185</v>
@@ -6664,240 +7080,241 @@
         <v>0.410132</v>
       </c>
       <c r="H26" s="1">
-        <v>1164.020000</v>
+        <v>1164.02</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.412000</v>
+        <v>-218.41200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>1487.001788</v>
       </c>
       <c r="L26" s="1">
-        <v>0.413056</v>
+        <v>0.41305599999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.700000</v>
+        <v>1191.7</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.056000</v>
+        <v>-151.05600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>1497.571517</v>
+        <v>1497.5715170000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.415992</v>
+        <v>0.41599199999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.643000</v>
+        <v>-128.643</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>1507.986512</v>
+        <v>1507.9865119999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.418885</v>
+        <v>0.41888500000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.395000</v>
+        <v>-107.395</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>1518.431302</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.421786</v>
+        <v>0.42178599999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1213.630000</v>
+        <v>1213.6300000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.875700</v>
+        <v>-89.875699999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>1528.455907</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.424571</v>
+        <v>0.42457099999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.270000</v>
+        <v>1218.27</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.952300</v>
+        <v>-84.952299999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>1538.644726</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.427401</v>
+        <v>0.42740099999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.110000</v>
+        <v>1225.1099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.653500</v>
+        <v>-87.653499999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>1549.267544</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.430352</v>
+        <v>0.43035200000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1232.820000</v>
+        <v>1232.82</v>
       </c>
       <c r="AR26" s="1">
-        <v>-98.851000</v>
+        <v>-98.850999999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>1559.586316</v>
+        <v>1559.5863159999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.433218</v>
+        <v>0.43321799999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="AW26" s="1">
-        <v>-117.325000</v>
+        <v>-117.325</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>1570.155101</v>
+        <v>1570.1551010000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.436154</v>
+        <v>0.43615399999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB26" s="1">
-        <v>-134.068000</v>
+        <v>-134.06800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>1581.201470</v>
+        <v>1581.20147</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.439223</v>
+        <v>0.43922299999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1288.700000</v>
+        <v>1288.7</v>
       </c>
       <c r="BG26" s="1">
-        <v>-213.180000</v>
+        <v>-213.18</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>1592.253327</v>
+        <v>1592.2533269999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.442293</v>
+        <v>0.44229299999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="BL26" s="1">
-        <v>-346.211000</v>
+        <v>-346.21100000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>1603.004649</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.445279</v>
+        <v>0.44527899999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1462.800000</v>
+        <v>1462.8</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-565.141000</v>
+        <v>-565.14099999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>1613.621971</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.448228</v>
+        <v>0.44822800000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1588.730000</v>
+        <v>1588.73</v>
       </c>
       <c r="BV26" s="1">
-        <v>-814.932000</v>
+        <v>-814.93200000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>1624.497253</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.451249</v>
+        <v>0.45124900000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1734.780000</v>
+        <v>1734.78</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1087.290000</v>
+        <v>-1087.29</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>1638.415987</v>
+        <v>1638.4159870000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.455116</v>
+        <v>0.45511600000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>2142.560000</v>
+        <v>2142.56</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1752.770000</v>
+        <v>-1752.77</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>